--- a/Examenes.xlsx
+++ b/Examenes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>ENERO</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>BD</t>
+  </si>
+  <si>
+    <t>Sistemas UD6</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -142,10 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,11 +454,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -602,7 +621,7 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -614,18 +633,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -633,7 +652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -641,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -649,7 +668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -657,7 +676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -665,15 +684,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -681,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -689,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -697,7 +719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -705,7 +727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -713,7 +735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -721,7 +743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -729,7 +751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -737,7 +759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>

--- a/Examenes.xlsx
+++ b/Examenes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>ENERO</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>Sistemas UD6</t>
+  </si>
+  <si>
+    <t>SAINT WEEK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +115,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -151,11 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,6 +192,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC0099"/>
       <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
@@ -454,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +535,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -525,6 +546,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -533,6 +557,9 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -541,6 +568,9 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -710,6 +740,9 @@
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -718,6 +751,9 @@
       <c r="B26">
         <v>25</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -726,6 +762,9 @@
       <c r="B27">
         <v>26</v>
       </c>
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -734,6 +773,9 @@
       <c r="B28">
         <v>27</v>
       </c>
+      <c r="E28" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -742,6 +784,9 @@
       <c r="B29">
         <v>28</v>
       </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -750,6 +795,9 @@
       <c r="B30">
         <v>29</v>
       </c>
+      <c r="E30" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -758,6 +806,9 @@
       <c r="B31">
         <v>30</v>
       </c>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -765,6 +816,9 @@
       </c>
       <c r="B32">
         <v>31</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
